--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-BengaliQuotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-KannadaQuotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B8292-10F8-4F9E-900E-30938BC7FE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF291D8-1202-45A5-8E3F-A43B4FF52286}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9ED55A9D-63EC-41DE-B944-2E2129788A86}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1034">
   <si>
     <t>Headers</t>
   </si>
@@ -132,6 +132,3006 @@
   </si>
   <si>
     <t>collection10HD</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C1/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C2/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C3/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C4/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C5/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C6/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C7/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C8/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C9/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-KannadaQuotes/master/C10/HD/50.png</t>
   </si>
 </sst>
 </file>
@@ -167,8 +3167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,191 +3484,3303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7997249E-0DE6-41B4-854D-215781FC0F75}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="32" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="35" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="46" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="48" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="49" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="50" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="51" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>